--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2359,7 +2359,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="175">
   <si>
     <t>Шампань</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Фуксія</t>
   </si>
   <si>
-    <t>Помаранчевий настрій</t>
-  </si>
-  <si>
     <t>Чорні очі</t>
   </si>
   <si>
@@ -518,17 +515,47 @@
     <t>page_html_kw</t>
   </si>
   <si>
-    <t>Время не стоит на месте, и многие привычные вещи, еще вчера считавшиеся вполне приемлемыми, сегодня безнадёжно устарели. Чем заполняли коробки для посылок вчера, чтобы хрупкое или ценное содержимое не пострадало при транспортировке? Мятой газетой или оберточной бумагой, в лучшем случае — воздушно-пузырьковой пленкой. Но если вам не все равно, в каком виде предстанет ваше отправление адресату, если вам хочется удивить его заботой и вниманием, подарить радостные эмоции от распаковки подарка, то самое время обратить внимание на наш новый оригинальный продукт.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Экофиллер&lt;/strong&gt; представляет собой множество аккуратно и точно нарезанных бумажых полосок шириной 2 мм. Благодаря специальной технологии смешивания, они образуют отличную упругую массу, которая не испортит своим внешним видом содержимое вашей посылки и при этом обладает прекрасными амортизирующими свойствами. Широкая цветовая гамма не оставит равнодушным никого, а экономичность использования (так, на коробку объемным весом 1 кг достаточно всего половины стандартной пачки (50 г) экофиллера) делает этот продукт поистине уникальным.</t>
-  </si>
-  <si>
     <t>Представляем экофиллер - новый экономичный и экологичный продукт для использования в упаковке и презентации товаров.</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-belyj-50-g-ef-7958</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-temno-sinij-50-g-ef-7774</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7637-podsolnuh-50-g</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7699-siren-50-g</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7804-gorchitsa-50-g</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7835-salat-50-g</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7842-zolotaya-osen-50-g</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7927-lazur-50-g</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/napolnitel-bumazhnyj-ekofiller-ef-7934-golubaya-mechta-50-g</t>
+  </si>
+  <si>
+    <t>Помаранч</t>
+  </si>
+  <si>
+    <t>Время не стоит на месте, и многие привычные вещи, еще вчера считавшиеся вполне приемлемыми, сегодня безнадёжно устарели. Чем заполняли коробки для посылок вчера, чтобы хрупкое или ценное содержимое не пострадало при транспортировке? Мятой газетой или оберточной бумагой, в лучшем случае — воздушно-пузырьковой пленкой. Но если вам не все равно, в каком виде предстанет ваше отправление адресату, если вам хочется удивить его заботой и вниманием, подарить радостные эмоции от распаковки подарка, то самое время обратить внимание на наш новый оригинальный продукт.&lt;/p&gt;&lt;p&gt;&lt;a href="http://ecofiller.com.ua"&gt;Экофиллер&lt;/a&gt; представляет собой множество аккуратно и точно нарезанных бумажых полосок шириной 2 мм. Благодаря специальной технологии смешивания, они образуют отличную упругую массу, которая не испортит своим внешним видом содержимое вашей посылки и при этом обладает прекрасными амортизирующими свойствами. Широкая цветовая гамма не оставит равнодушным никого, а экономичность использования (так, на коробку объемным весом 1 кг достаточно всего половины стандартной пачки (50 г) экофиллера) делает этот продукт поистине уникальным.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -576,8 +603,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +621,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -615,10 +654,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,8 +729,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -895,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -911,7 +959,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="10">
         <v>1</v>
@@ -946,45 +994,45 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -996,34 +1044,34 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29.25" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1037,266 +1085,266 @@
     </row>
     <row r="8" spans="1:12" s="19" customFormat="1" ht="33.75" customHeight="1">
       <c r="A8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="J8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>108</v>
-      </c>
       <c r="G9" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="F10" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" ht="34.5" customHeight="1">
       <c r="A13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="I13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="K13" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="19" customFormat="1" ht="114.75" customHeight="1">
       <c r="A14" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="19" customFormat="1" ht="172.5" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1310,10 +1358,10 @@
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="249.75" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2339,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2376,13 +2424,13 @@
         <v>«Шампань» • EF-7576</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2399,13 +2447,13 @@
         <v>«Океан» • EF-7583</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -2422,7 +2470,7 @@
         <v>«Персик» • EF-7590</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3"/>
     </row>
@@ -2445,7 +2493,7 @@
         <v>«М'ята» • EF-7606</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4"/>
     </row>
@@ -2468,7 +2516,7 @@
         <v>«Крем брюле» • EF-7613</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5"/>
     </row>
@@ -2491,15 +2539,15 @@
         <v>«Лимон» • EF-7620</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="5">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3">
@@ -2513,7 +2561,9 @@
         <f t="shared" si="1"/>
         <v>«Соняшник» • EF-7637</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="27" t="s">
+        <v>166</v>
+      </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
@@ -2535,13 +2585,13 @@
         <v>«Апельсин» • EF-7644</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2558,13 +2608,13 @@
         <v>«Корал» • EF-7651</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -2581,7 +2631,7 @@
         <v>«Трава» • EF-7668</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10"/>
     </row>
@@ -2604,13 +2654,13 @@
         <v>«Синява» • EF-7675</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -2627,15 +2677,15 @@
         <v>«Срібло» • EF-7682</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="5">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3">
@@ -2649,12 +2699,14 @@
         <f t="shared" si="1"/>
         <v>«Бузок» • EF-7699</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -2671,7 +2723,7 @@
         <v>«Смарагд» • EF-7705</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14"/>
     </row>
@@ -2694,7 +2746,7 @@
         <v>«Яскраве сонце» • EF-7712</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15"/>
     </row>
@@ -2717,7 +2769,7 @@
         <v>«Рожеві окуляри» • EF-7729</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16"/>
     </row>
@@ -2740,16 +2792,16 @@
         <v>«Фуксія» • EF-7736</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3">
         <v>4820090867743</v>
@@ -2760,19 +2812,19 @@
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>«Помаранчевий настрій» • EF-7743</v>
+        <v>«Помаранч» • EF-7743</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>4820090867750</v>
@@ -2786,7 +2838,7 @@
         <v>«Чорні очі» • EF-7750</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19"/>
     </row>
@@ -2795,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3">
         <v>4820090867767</v>
@@ -2809,16 +2861,16 @@
         <v>«Агрус» • EF-7767</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="5">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>4820090867774</v>
@@ -2831,15 +2883,17 @@
         <f t="shared" si="1"/>
         <v>«Кобальт» • EF-7774</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <v>4820090867781</v>
@@ -2853,7 +2907,7 @@
         <v>«Шоколад» • EF-7781</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22"/>
     </row>
@@ -2862,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>4820090867798</v>
@@ -2876,15 +2930,15 @@
         <v>«Малина» • EF-7798</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="5">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3">
@@ -2898,12 +2952,14 @@
         <f t="shared" si="1"/>
         <v>«Гірчиця» • EF-7804</v>
       </c>
-      <c r="F24"/>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2920,7 +2976,7 @@
         <v>«Лаванда» • EF-7811</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25"/>
     </row>
@@ -2943,15 +2999,15 @@
         <v>«Фламінго» • EF-7828</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="5">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="3">
@@ -2965,14 +3021,16 @@
         <f t="shared" si="1"/>
         <v>«Салат» • EF-7835</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="5">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="3">
@@ -2986,12 +3044,14 @@
         <f t="shared" si="1"/>
         <v>«Золота осінь» • EF-7842</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -3008,7 +3068,7 @@
         <v>«Цегла» • EF-7859</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29"/>
     </row>
@@ -3031,7 +3091,7 @@
         <v>«Лайм» • EF-7866</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30"/>
     </row>
@@ -3040,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3">
         <v>4820090867873</v>
@@ -3054,7 +3114,7 @@
         <v>«Морська хвиля» • EF-7873</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31"/>
     </row>
@@ -3063,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3">
         <v>4820090867880</v>
@@ -3077,13 +3137,13 @@
         <v>«Малахит» • EF-7880</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -3100,7 +3160,7 @@
         <v>«Рожевий світанок» • EF-7897</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33"/>
     </row>
@@ -3123,7 +3183,7 @@
         <v>«Кульбаба» • EF-7903</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34"/>
     </row>
@@ -3146,15 +3206,15 @@
         <v>«Золотий пісок» • EF-7910</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="5">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="3">
@@ -3168,14 +3228,16 @@
         <f t="shared" si="1"/>
         <v>«Блакить» • EF-7927</v>
       </c>
-      <c r="F36"/>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="5">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3">
@@ -3189,7 +3251,9 @@
         <f t="shared" si="1"/>
         <v>«Блакитна мрія» • EF-7934</v>
       </c>
-      <c r="F37"/>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
@@ -3197,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3">
         <v>4820090867941</v>
@@ -3211,16 +3275,16 @@
         <v>«Крафтова кава» • EF-7941</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="5">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="3">
         <v>4820090867958</v>
@@ -3233,7 +3297,9 @@
         <f t="shared" si="1"/>
         <v>«Білий сніг» • EF-7958</v>
       </c>
-      <c r="F39"/>
+      <c r="F39" s="27" t="s">
+        <v>164</v>
+      </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -3241,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3">
         <v>4820090867965</v>
@@ -3262,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3">
         <v>4820090867972</v>
@@ -4253,6 +4319,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F39" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>Что использовали для наполнения коробок для посылок раньше? Мятую газету? Пупырчатую пленку? Пришло время новых решений — экономичных и экологичных! Экофиллер — новый материал для использования в упаковке надежно сохранит содержимое коробки, а своей яркостью и необычностью подарит адресату незабываемые эмоции. Узнайте больше о нашей новой линейке бумажного экофиллера и выберите для себя тот, который наилучшим образом подходит именно вам!</t>
   </si>
   <si>
-    <t>Мятая газета или неэкологичная синтетическая пузырьковая пленка для использования в упаковке? Вчерашний день! Сегодня в моде экофиллер — новый материал, который не только сохранит в полной безопасности содержимое, но и своим ярким и необычным внешним видом подарит адресату вашей посылки незабываемые эмоции. Превратить обычный подарок в волшебный сюрприз? Легко! Добавьте в упаковку немного цветного экофиллера, и ощущение праздника  возникнет тут же, как только коробка будет открыта! Широкая цветовая гамма и бескомпромиссное качество изготовления нашего экофиллера характеризуют его как продукт, способный заменить давно устаревшие материалы для использования в упаковке и презентации ваших товаров.</t>
-  </si>
-  <si>
     <t>bumagia.com.ua | экофиллер</t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>Время не стоит на месте, и многие привычные вещи, еще вчера считавшиеся вполне приемлемыми, сегодня безнадёжно устарели. Чем заполняли коробки для посылок вчера, чтобы хрупкое или ценное содержимое не пострадало при транспортировке? Мятой газетой или оберточной бумагой, в лучшем случае — воздушно-пузырьковой пленкой. Но если вам не все равно, в каком виде предстанет ваше отправление адресату, если вам хочется удивить его заботой и вниманием, подарить радостные эмоции от распаковки подарка, то самое время обратить внимание на наш новый оригинальный продукт.&lt;/p&gt;&lt;p&gt;&lt;a href="http://ecofiller.com.ua"&gt;Экофиллер&lt;/a&gt; представляет собой множество аккуратно и точно нарезанных бумажых полосок шириной 2 мм. Благодаря специальной технологии смешивания, они образуют отличную упругую массу, которая не испортит своим внешним видом содержимое вашей посылки и при этом обладает прекрасными амортизирующими свойствами. Широкая цветовая гамма не оставит равнодушным никого, а экономичность использования (так, на коробку объемным весом 1 кг достаточно всего половины стандартной пачки (50 г) экофиллера) делает этот продукт поистине уникальным.</t>
+  </si>
+  <si>
+    <t>Мятая газета или неэкологичная синтетическая пузырьковая пленка для использования в упаковке? Вчерашний день! Сегодня в моде &lt;a href="products/ecofiller.html"&gt;экофиллер&lt;/a&gt; — новый материал, который не только сохранит в полной безопасности содержимое, но и своим ярким и необычным внешним видом подарит адресату вашей посылки незабываемые эмоции. Превратить обычный подарок в волшебный сюрприз? Легко! Добавьте в упаковку немного цветного экофиллера, и ощущение праздника  возникнет тут же, как только коробка будет открыта! Широкая цветовая гамма и бескомпромиссное качество изготовления нашего экофиллера характеризуют его как продукт, способный заменить давно устаревшие материалы для использования в упаковке и презентации ваших товаров.</t>
   </si>
 </sst>
 </file>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1047,7 +1047,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29.25" customHeight="1">
@@ -1055,15 +1055,15 @@
         <v>77</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
@@ -1344,7 +1344,7 @@
         <v>155</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="249.75" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2387,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2562,7 +2562,7 @@
         <v>«Соняшник» • EF-7637</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7"/>
     </row>
@@ -2700,7 +2700,7 @@
         <v>«Бузок» • EF-7699</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13"/>
     </row>
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3">
         <v>4820090867743</v>
@@ -2884,7 +2884,7 @@
         <v>«Кобальт» • EF-7774</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G21"/>
     </row>
@@ -2953,7 +2953,7 @@
         <v>«Гірчиця» • EF-7804</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24"/>
     </row>
@@ -3022,7 +3022,7 @@
         <v>«Салат» • EF-7835</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27"/>
     </row>
@@ -3045,7 +3045,7 @@
         <v>«Золота осінь» • EF-7842</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G28"/>
     </row>
@@ -3229,7 +3229,7 @@
         <v>«Блакить» • EF-7927</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G36"/>
     </row>
@@ -3252,7 +3252,7 @@
         <v>«Блакитна мрія» • EF-7934</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G37"/>
     </row>
@@ -3298,7 +3298,7 @@
         <v>«Білий сніг» • EF-7958</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39"/>
     </row>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -965,31 +965,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
@@ -2387,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
   <si>
     <t>Шампань</t>
   </si>
@@ -549,6 +549,24 @@
   </si>
   <si>
     <t>Мятая газета или неэкологичная синтетическая пузырьковая пленка для использования в упаковке? Вчерашний день! Сегодня в моде &lt;a href="products/ecofiller.html"&gt;экофиллер&lt;/a&gt; — новый материал, который не только сохранит в полной безопасности содержимое, но и своим ярким и необычным внешним видом подарит адресату вашей посылки незабываемые эмоции. Превратить обычный подарок в волшебный сюрприз? Легко! Добавьте в упаковку немного цветного экофиллера, и ощущение праздника  возникнет тут же, как только коробка будет открыта! Широкая цветовая гамма и бескомпромиссное качество изготовления нашего экофиллера характеризуют его как продукт, способный заменить давно устаревшие материалы для использования в упаковке и презентации ваших товаров.</t>
+  </si>
+  <si>
+    <t>«Интенсив», 7 цветов</t>
+  </si>
+  <si>
+    <t>«Неон», 7 цветов</t>
+  </si>
+  <si>
+    <t>«Интенсив», 12 цветов</t>
+  </si>
+  <si>
+    <t>«Неон», 10 цветов</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/catalog/nabory-tsvetnoj-bumagi</t>
+  </si>
+  <si>
+    <t>«Ассорти», 20 цветов</t>
   </si>
 </sst>
 </file>
@@ -661,7 +679,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,6 +751,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -943,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -962,34 +981,34 @@
         <v>73</v>
       </c>
       <c r="B1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="10">
         <v>1</v>
       </c>
       <c r="H1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
@@ -4379,12 +4398,100 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1">
+      <c r="B2" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="1" customFormat="1">
+      <c r="B4" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1">
+      <c r="B6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1">
+      <c r="B8" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="219">
   <si>
     <t>Шампань</t>
   </si>
@@ -567,13 +567,127 @@
   </si>
   <si>
     <t>«Ассорти», 20 цветов</t>
+  </si>
+  <si>
+    <t>Кошки</t>
+  </si>
+  <si>
+    <t>Собаки</t>
+  </si>
+  <si>
+    <t>Цветы</t>
+  </si>
+  <si>
+    <t>Спорт</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
+  </si>
+  <si>
+    <t>Профессии</t>
+  </si>
+  <si>
+    <t>Девушки Европы</t>
+  </si>
+  <si>
+    <t>Стильные девушки</t>
+  </si>
+  <si>
+    <t>Классики украинской литературы</t>
+  </si>
+  <si>
+    <t>Раскраски-антистресс. Серия 2</t>
+  </si>
+  <si>
+    <t>Раскраски-антистресс. Серия 3</t>
+  </si>
+  <si>
+    <t>Животные в технике оригами</t>
+  </si>
+  <si>
+    <t>Орнаменты</t>
+  </si>
+  <si>
+    <t>Поделки из квиллинга</t>
+  </si>
+  <si>
+    <t>Поп-арт</t>
+  </si>
+  <si>
+    <t>Раскраски-антистресс</t>
+  </si>
+  <si>
+    <t>Модные футболки</t>
+  </si>
+  <si>
+    <t>Уличная культура</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-1154-koshki</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-1161-sobaki</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-1130-tsvety</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4902-sport</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-1123-transport</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-2014-professii</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4889-stilnye-devushki</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4865-klassiki-ukrainskoj-literatury</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-6180-antistress-2</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-6197-antistress-3</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-3905-zhivotnye-origami</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-3912-ornamenty</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4612-podelki-iz-kvillinga</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4681-pop-art</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4698-raskraska-antistress</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4704-modnye-futbolki</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4896-ulichnaya-kultura</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4858-devushki-evropy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -627,6 +741,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -679,7 +801,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +874,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -963,7 +1090,7 @@
   <dimension ref="A1:L1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -993,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="10">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10">
         <v>0</v>
-      </c>
-      <c r="G1" s="10">
-        <v>1</v>
       </c>
       <c r="H1" s="10">
         <v>0</v>
@@ -2407,7 +2534,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4386,13 +4513,420 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="107.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="22">
+        <v>4820090864896</v>
+      </c>
+      <c r="D1" s="31" t="str">
+        <f>CONCATENATE("BM-",RIGHT(C1,4))</f>
+        <v>BM-4896</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4820090861154</v>
+      </c>
+      <c r="D2" s="31" t="str">
+        <f t="shared" ref="D2:D18" si="0">CONCATENATE("BM-",RIGHT(C2,4))</f>
+        <v>BM-1154</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="22">
+        <v>4820090861161</v>
+      </c>
+      <c r="D3" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-1161</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="22">
+        <v>4820090861130</v>
+      </c>
+      <c r="D4" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-1130</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4820090864902</v>
+      </c>
+      <c r="D5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4902</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4820090861123</v>
+      </c>
+      <c r="D6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-1123</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="22">
+        <v>4820090862014</v>
+      </c>
+      <c r="D7" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-2014</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="22">
+        <v>4820090864858</v>
+      </c>
+      <c r="D8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4858</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="22">
+        <v>4820090864889</v>
+      </c>
+      <c r="D9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4889</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4820090864865</v>
+      </c>
+      <c r="D10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4865</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="22">
+        <v>4820090864698</v>
+      </c>
+      <c r="D11" s="31" t="str">
+        <f>CONCATENATE("BM-",RIGHT(C11,4))</f>
+        <v>BM-4698</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4820090866180</v>
+      </c>
+      <c r="D12" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-6180</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="22">
+        <v>4820090866197</v>
+      </c>
+      <c r="D13" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-6197</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="22">
+        <v>4820090864704</v>
+      </c>
+      <c r="D14" s="31" t="str">
+        <f>CONCATENATE("BM-",RIGHT(C14,4))</f>
+        <v>BM-4704</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="22">
+        <v>4820090864681</v>
+      </c>
+      <c r="D15" s="31" t="str">
+        <f>CONCATENATE("BM-",RIGHT(C15,4))</f>
+        <v>BM-4681</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="22">
+        <v>4820090863905</v>
+      </c>
+      <c r="D16" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-3905</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="22">
+        <v>4820090863912</v>
+      </c>
+      <c r="D17" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-3912</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="22">
+        <v>4820090864612</v>
+      </c>
+      <c r="D18" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4612</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F18" r:id="rId14"/>
+    <hyperlink ref="F15" r:id="rId15"/>
+    <hyperlink ref="F11" r:id="rId16"/>
+    <hyperlink ref="F14" r:id="rId17"/>
+    <hyperlink ref="F1" r:id="rId18"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="2400" verticalDpi="2400" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -4400,7 +4934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687" activeTab="5"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="23655" windowHeight="13995" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
-    <sheet name="ecofiller" sheetId="2" r:id="rId2"/>
-    <sheet name="papercubes" sheetId="4" r:id="rId3"/>
-    <sheet name="quilmagnet" sheetId="5" r:id="rId4"/>
-    <sheet name="puzzles" sheetId="6" r:id="rId5"/>
-    <sheet name="bookmarks" sheetId="7" r:id="rId6"/>
-    <sheet name="twosidespaper" sheetId="8" r:id="rId7"/>
-    <sheet name="modul_origami" sheetId="9" r:id="rId8"/>
-    <sheet name="quilling3d" sheetId="10" r:id="rId9"/>
-    <sheet name="quilling" sheetId="11" r:id="rId10"/>
-    <sheet name="sketchbooks" sheetId="12" r:id="rId11"/>
+    <sheet name="index" sheetId="14" r:id="rId2"/>
+    <sheet name="ecofiller" sheetId="13" r:id="rId3"/>
+    <sheet name="papercubes" sheetId="4" r:id="rId4"/>
+    <sheet name="quilmagnet" sheetId="5" r:id="rId5"/>
+    <sheet name="puzzles" sheetId="6" r:id="rId6"/>
+    <sheet name="bookmarks" sheetId="7" r:id="rId7"/>
+    <sheet name="twosidespaper" sheetId="8" r:id="rId8"/>
+    <sheet name="modul_origami" sheetId="9" r:id="rId9"/>
+    <sheet name="quilling3d" sheetId="10" r:id="rId10"/>
+    <sheet name="quilling" sheetId="11" r:id="rId11"/>
+    <sheet name="sketchbooks" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="232">
   <si>
     <t>Шампань</t>
   </si>
@@ -251,9 +252,6 @@
     <t>section_name</t>
   </si>
   <si>
-    <t>section_name_rus</t>
-  </si>
-  <si>
     <t>page_html_title</t>
   </si>
   <si>
@@ -290,9 +288,6 @@
     <t>sketchbooks</t>
   </si>
   <si>
-    <t>Блоки бумаги для записей</t>
-  </si>
-  <si>
     <t>section_menuitem</t>
   </si>
   <si>
@@ -302,18 +297,6 @@
     <t>Головоломки-пазлы</t>
   </si>
   <si>
-    <t>Закладки для книг</t>
-  </si>
-  <si>
-    <t>Двусторонняя цветная бумага</t>
-  </si>
-  <si>
-    <t>Модульное оригами</t>
-  </si>
-  <si>
-    <t>Объемный квиллинг</t>
-  </si>
-  <si>
     <t>Наборы для квиллинга</t>
   </si>
   <si>
@@ -329,12 +312,6 @@
     <t>section_title_sl</t>
   </si>
   <si>
-    <t>Блоки бумаги</t>
-  </si>
-  <si>
-    <t>для записей</t>
-  </si>
-  <si>
     <t>Квиллинг</t>
   </si>
   <si>
@@ -681,13 +658,76 @@
   </si>
   <si>
     <t>http://www.bumagiy.com/products/zakladki-dlya-knig-kartonnye-8-sht-v-nabore-bm-4858-devushki-evropy</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>articul</t>
+  </si>
+  <si>
+    <t>name_articul</t>
+  </si>
+  <si>
+    <t>buylink</t>
+  </si>
+  <si>
+    <t>Блоки бумаги для записей</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>bumagia.com.ua | наборы закладок для книг</t>
+  </si>
+  <si>
+    <t>Представляем наборы закладок для книг с модным, современным оформлением</t>
+  </si>
+  <si>
+    <t>закладки для книг, закладки для школы, закладки с линейкой, закладки с таблицей умножения, закладка-раскраска, модная закладка, прикольная закладка для книг</t>
+  </si>
+  <si>
+    <t>Чтение никогда не выходит из моды! А что может быть лучшим проводником на пути в мир книг, как не коллекция привлекательных и ярких закладок? Необычная форма, разнообразное оформление и полезная информация — линейка на одной из сторон и таблица умножения либо тематическая информация на обороте — делают наши закладки лучшим выбором среди аналогичных товаров.</t>
+  </si>
+  <si>
+    <t>catalog_link</t>
+  </si>
+  <si>
+    <t>https://www.yumpu.com/ru/document/read/65197577/bumagia</t>
+  </si>
+  <si>
+    <t>Блоки бумаги</t>
+  </si>
+  <si>
+    <t>для записей</t>
+  </si>
+  <si>
+    <t>Двусоронняя цветная бумага</t>
+  </si>
+  <si>
+    <t>Модульное оригами</t>
+  </si>
+  <si>
+    <t>Объемный квиллинг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,6 +785,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -836,12 +884,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -879,6 +921,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1087,24 +1133,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1007"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="75" style="10" customWidth="1"/>
-    <col min="3" max="11" width="15.7109375" style="10" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="10" customWidth="1"/>
+    <col min="7" max="11" width="15.7109375" style="10" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="8" customWidth="1"/>
     <col min="13" max="26" width="8.7109375" style="8" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="10">
@@ -1139,391 +1187,187 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="C8" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="F8" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="174" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="14" t="s">
+      <c r="B9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="249.75" customHeight="1">
+      <c r="A10" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" s="19" customFormat="1" ht="249.75" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1"/>
+      <c r="B10" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2492,13 +2336,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2529,1931 +2366,1368 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="99.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="88.85546875" customWidth="1"/>
-    <col min="10" max="29" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
+    <row r="1" spans="1:12">
+      <c r="A1" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="154.5" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="98.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>4820090867576</v>
       </c>
-      <c r="D1" s="4" t="str">
-        <f t="shared" ref="D1:D41" si="0">CONCATENATE("EF-",RIGHT(C1,4))</f>
+      <c r="E2" s="4" t="str">
+        <f t="shared" ref="E2:E42" si="0">CONCATENATE("EF-",RIGHT(D2,4))</f>
         <v>EF-7576</v>
       </c>
-      <c r="E1" s="7" t="str">
-        <f>CONCATENATE("«",B1,"» • ",D1,)</f>
+      <c r="F2" s="7" t="str">
+        <f t="shared" ref="F2:F42" si="1">CONCATENATE("«",C2,"» • ",E2,)</f>
         <v>«Шампань» • EF-7576</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D3" s="3">
         <v>4820090867583</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="E3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7583</v>
       </c>
-      <c r="E2" s="7" t="str">
-        <f t="shared" ref="E2:E41" si="1">CONCATENATE("«",B2,"» • ",D2,)</f>
+      <c r="F3" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>«Океан» • EF-7583</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D4" s="3">
         <v>4820090867590</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7590</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="F4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Персик» • EF-7590</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D5" s="3">
         <v>4820090867606</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7606</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«М'ята» • EF-7606</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>4820090867613</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7613</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Крем брюле» • EF-7613</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D7" s="3">
         <v>4820090867620</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7620</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="F7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Лимон» • EF-7620</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="28" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D8" s="3">
         <v>4820090867637</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7637</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="F8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Соняшник» • EF-7637</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="G8" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D9" s="3">
         <v>4820090867644</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7644</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="F9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Апельсин» • EF-7644</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D10" s="3">
         <v>4820090867651</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7651</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="F10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Корал» • EF-7651</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D11" s="3">
         <v>4820090867668</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7668</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="F11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Трава» • EF-7668</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D12" s="3">
         <v>4820090867675</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7675</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="F12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Синява» • EF-7675</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D13" s="3">
         <v>4820090867682</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7682</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="F13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Срібло» • EF-7682</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="28" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D14" s="3">
         <v>4820090867699</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7699</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="F14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Бузок» • EF-7699</v>
       </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D15" s="3">
         <v>4820090867705</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7705</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Смарагд» • EF-7705</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D16" s="3">
         <v>4820090867712</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7712</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="F16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Яскраве сонце» • EF-7712</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D17" s="3">
         <v>4820090867729</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7729</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="F17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Рожеві окуляри» • EF-7729</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D18" s="3">
         <v>4820090867736</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7736</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="F18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Фуксія» • EF-7736</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="3">
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="3">
         <v>4820090867743</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7743</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Помаранч» • EF-7743</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D20" s="3">
         <v>4820090867750</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="E20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7750</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="F20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Чорні очі» • EF-7750</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D21" s="3">
         <v>4820090867767</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7767</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="F21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Агрус» • EF-7767</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>2</v>
-      </c>
-      <c r="B21" s="28" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D22" s="3">
         <v>4820090867774</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="E22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7774</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="F22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Кобальт» • EF-7774</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="G22" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D23" s="3">
         <v>4820090867781</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7781</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="F23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Шоколад» • EF-7781</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D24" s="3">
         <v>4820090867798</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="E24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7798</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="F24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Малина» • EF-7798</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="28" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D25" s="3">
         <v>4820090867804</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7804</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="F25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Гірчиця» • EF-7804</v>
       </c>
-      <c r="F24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="G25" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D26" s="3">
         <v>4820090867811</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="E26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7811</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="F26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Лаванда» • EF-7811</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D27" s="3">
         <v>4820090867828</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="E27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7828</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="F27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Фламінго» • EF-7828</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
-        <v>2</v>
-      </c>
-      <c r="B27" s="28" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D28" s="3">
         <v>4820090867835</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="E28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7835</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="F28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Салат» • EF-7835</v>
       </c>
-      <c r="F27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="5">
-        <v>2</v>
-      </c>
-      <c r="B28" s="28" t="s">
+      <c r="G28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D29" s="3">
         <v>4820090867842</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="E29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7842</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="F29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Золота осінь» • EF-7842</v>
       </c>
-      <c r="F28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="5">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D30" s="3">
         <v>4820090867859</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="E30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7859</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="F30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Цегла» • EF-7859</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D31" s="3">
         <v>4820090867866</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="E31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7866</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="F31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Лайм» • EF-7866</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D32" s="3">
         <v>4820090867873</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="E32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7873</v>
       </c>
-      <c r="E31" s="7" t="str">
+      <c r="F32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Морська хвиля» • EF-7873</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="5">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D33" s="3">
         <v>4820090867880</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="E33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7880</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="F33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Малахит» • EF-7880</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D34" s="3">
         <v>4820090867897</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="E34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7897</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="F34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Рожевий світанок» • EF-7897</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="5">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D35" s="3">
         <v>4820090867903</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="E35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7903</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="F35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Кульбаба» • EF-7903</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="5">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D36" s="3">
         <v>4820090867910</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="E36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7910</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="F36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Золотий пісок» • EF-7910</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="5">
-        <v>2</v>
-      </c>
-      <c r="B36" s="28" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D37" s="3">
         <v>4820090867927</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="E37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7927</v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="F37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Блакить» • EF-7927</v>
       </c>
-      <c r="F36" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="5">
-        <v>1</v>
-      </c>
-      <c r="B37" s="28" t="s">
+      <c r="G37" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D38" s="3">
         <v>4820090867934</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="E38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7934</v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="F38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Блакитна мрія» • EF-7934</v>
       </c>
-      <c r="F37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="G38" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D39" s="3">
         <v>4820090867941</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="E39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7941</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="F39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Крафтова кава» • EF-7941</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="28" t="s">
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D40" s="3">
         <v>4820090867958</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="E40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7958</v>
       </c>
-      <c r="E39" s="7" t="str">
+      <c r="F40" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Білий сніг» • EF-7958</v>
       </c>
-      <c r="F39" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="5">
-        <v>0</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="G40" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="5">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D41" s="3">
         <v>4820090867965</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="E41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7965</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="F41" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Газетні  шпальта» • EF-7965</v>
       </c>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="5">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="5">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D42" s="3">
         <v>4820090867972</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="E42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EF-7972</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="F42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«Вінтажна мода» • EF-7972</v>
       </c>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="G42" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="B2:F41">
-    <sortCondition ref="C2:C41"/>
-  </sortState>
-  <conditionalFormatting sqref="A1:A41">
+  <conditionalFormatting sqref="A2:B42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4466,24 +3740,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F39" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="G40" r:id="rId1"/>
+    <hyperlink ref="G22" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="2400" verticalDpi="2400" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4513,424 +3775,514 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="6" max="6" width="107.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="7" max="7" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="22">
-        <v>4820090864896</v>
-      </c>
-      <c r="D1" s="31" t="str">
-        <f>CONCATENATE("BM-",RIGHT(C1,4))</f>
-        <v>BM-4896</v>
-      </c>
-      <c r="F1" s="32" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="22">
-        <v>4820090861154</v>
-      </c>
-      <c r="D2" s="31" t="str">
-        <f t="shared" ref="D2:D18" si="0">CONCATENATE("BM-",RIGHT(C2,4))</f>
-        <v>BM-1154</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>199</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="20">
+        <v>4820090864896</v>
+      </c>
+      <c r="E2" s="29" t="str">
+        <f>CONCATENATE("BM-",RIGHT(D2,4))</f>
+        <v>BM-4896</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="22">
-        <v>4820090861161</v>
-      </c>
-      <c r="D3" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-1161</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4820090861154</v>
+      </c>
+      <c r="E3" s="29" t="str">
+        <f t="shared" ref="E3:E19" si="0">CONCATENATE("BM-",RIGHT(D3,4))</f>
+        <v>BM-1154</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="22">
-        <v>4820090861130</v>
-      </c>
-      <c r="D4" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-1130</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="20">
+        <v>4820090861161</v>
+      </c>
+      <c r="E4" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-1161</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="22">
-        <v>4820090864902</v>
-      </c>
-      <c r="D5" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-4902</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4820090861130</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-1130</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="22">
-        <v>4820090861123</v>
-      </c>
-      <c r="D6" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-1123</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4820090864902</v>
+      </c>
+      <c r="E6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4902</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="22">
-        <v>4820090862014</v>
-      </c>
-      <c r="D7" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-2014</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4820090861123</v>
+      </c>
+      <c r="E7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-1123</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="22">
-        <v>4820090864858</v>
-      </c>
-      <c r="D8" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-4858</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>218</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4820090862014</v>
+      </c>
+      <c r="E8" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-2014</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="22">
-        <v>4820090864889</v>
-      </c>
-      <c r="D9" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-4889</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>205</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="20">
+        <v>4820090864858</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4858</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="22">
-        <v>4820090864865</v>
-      </c>
-      <c r="D10" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-4865</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>206</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4820090864889</v>
+      </c>
+      <c r="E10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4889</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="22">
-        <v>4820090864698</v>
-      </c>
-      <c r="D11" s="31" t="str">
-        <f>CONCATENATE("BM-",RIGHT(C11,4))</f>
-        <v>BM-4698</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>213</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4820090864865</v>
+      </c>
+      <c r="E11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-4865</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="22">
-        <v>4820090866180</v>
-      </c>
-      <c r="D12" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-6180</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>207</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4820090864698</v>
+      </c>
+      <c r="E12" s="29" t="str">
+        <f>CONCATENATE("BM-",RIGHT(D12,4))</f>
+        <v>BM-4698</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="22">
-        <v>4820090866197</v>
-      </c>
-      <c r="D13" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-6197</v>
-      </c>
-      <c r="F13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4820090866180</v>
+      </c>
+      <c r="E13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-6180</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>208</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="22">
-        <v>4820090864704</v>
-      </c>
-      <c r="D14" s="31" t="str">
-        <f>CONCATENATE("BM-",RIGHT(C14,4))</f>
-        <v>BM-4704</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="20">
+        <v>4820090866197</v>
+      </c>
+      <c r="E14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-6197</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="22">
-        <v>4820090864681</v>
-      </c>
-      <c r="D15" s="31" t="str">
-        <f>CONCATENATE("BM-",RIGHT(C15,4))</f>
-        <v>BM-4681</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>212</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="20">
+        <v>4820090864704</v>
+      </c>
+      <c r="E15" s="29" t="str">
+        <f>CONCATENATE("BM-",RIGHT(D15,4))</f>
+        <v>BM-4704</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="22">
-        <v>4820090863905</v>
-      </c>
-      <c r="D16" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-3905</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>209</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="20">
+        <v>4820090864681</v>
+      </c>
+      <c r="E16" s="29" t="str">
+        <f>CONCATENATE("BM-",RIGHT(D16,4))</f>
+        <v>BM-4681</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="22">
-        <v>4820090863912</v>
-      </c>
-      <c r="D17" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>BM-3912</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>210</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="20">
+        <v>4820090863905</v>
+      </c>
+      <c r="E17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-3905</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="22">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4820090863912</v>
+      </c>
+      <c r="E18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>BM-3912</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="20">
         <v>4820090864612</v>
       </c>
-      <c r="D18" s="31" t="str">
+      <c r="E19" s="29" t="str">
         <f t="shared" si="0"/>
         <v>BM-4612</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>216</v>
+      <c r="F19" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="F17" r:id="rId13"/>
-    <hyperlink ref="F18" r:id="rId14"/>
-    <hyperlink ref="F15" r:id="rId15"/>
-    <hyperlink ref="F11" r:id="rId16"/>
-    <hyperlink ref="F14" r:id="rId17"/>
-    <hyperlink ref="F1" r:id="rId18"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="G17" r:id="rId12"/>
+    <hyperlink ref="G18" r:id="rId13"/>
+    <hyperlink ref="G19" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G12" r:id="rId16"/>
+    <hyperlink ref="G15" r:id="rId17"/>
+    <hyperlink ref="G2" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="2400" verticalDpi="2400" r:id="rId19"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F10"/>
   <sheetViews>
@@ -4946,98 +4298,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="29" t="s">
-        <v>175</v>
+      <c r="B1" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1">
-      <c r="B2" s="29" t="s">
-        <v>175</v>
+      <c r="B2" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="29" t="s">
-        <v>176</v>
+      <c r="B3" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="1" customFormat="1">
-      <c r="B4" s="29" t="s">
-        <v>176</v>
+      <c r="B4" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="29" t="s">
-        <v>177</v>
+      <c r="B5" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1">
-      <c r="B6" s="29" t="s">
-        <v>177</v>
+      <c r="B6" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="29" t="s">
-        <v>178</v>
+      <c r="B7" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1">
-      <c r="B8" s="29" t="s">
-        <v>178</v>
+      <c r="B8" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="29" t="s">
-        <v>180</v>
+      <c r="B9" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="29" t="s">
-        <v>180</v>
+      <c r="B10" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="246">
   <si>
     <t>Шампань</t>
   </si>
@@ -721,6 +721,48 @@
   </si>
   <si>
     <t>Объемный квиллинг</t>
+  </si>
+  <si>
+    <t>buylink_title</t>
+  </si>
+  <si>
+    <t>Купить экофиллер</t>
+  </si>
+  <si>
+    <t>Купить набор «Квиллинг + магнит»</t>
+  </si>
+  <si>
+    <t>Купить пазлы</t>
+  </si>
+  <si>
+    <t>Купить блок бумаги для записей</t>
+  </si>
+  <si>
+    <t>Купить закладку для книг</t>
+  </si>
+  <si>
+    <t>Купить набор цветной бумаги (картона)</t>
+  </si>
+  <si>
+    <t>Купить набор для модульного оригами</t>
+  </si>
+  <si>
+    <t>Купить набор для объемного квиллинга</t>
+  </si>
+  <si>
+    <t>Купить набор для квиллинга</t>
+  </si>
+  <si>
+    <t>Купить бумагу без скоб и скрепок</t>
+  </si>
+  <si>
+    <t>bumagia.com.ua | наборы цветной двусторонней бумаги и картона</t>
+  </si>
+  <si>
+    <t>Представляем наборы цветной двусторонней бумаги и картона</t>
+  </si>
+  <si>
+    <t>цветная бумага, цветной картон, двусторонняя цветная бумага, двусторонний цветной картон</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1144,8 +1186,9 @@
     <col min="1" max="1" width="20.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="75" style="10" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="10" customWidth="1"/>
-    <col min="7" max="11" width="15.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="10" customWidth="1"/>
+    <col min="8" max="11" width="15.7109375" style="10" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="8" customWidth="1"/>
     <col min="13" max="26" width="8.7109375" style="8" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="8"/>
@@ -1168,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="10">
         <v>0</v>
@@ -1221,38 +1264,68 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="G3" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="G4" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="114" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="14" t="s">
         <v>223</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -1284,79 +1357,113 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="33.75" customHeight="1">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="48.75" customHeight="1">
       <c r="A8" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="174" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="174" customHeight="1">
+      <c r="A10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="249.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="14" t="s">
-        <v>224</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="249.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -2336,6 +2443,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2669,7 +2777,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3360,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>7</v>
@@ -3385,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>12</v>
@@ -3460,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3560,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -3585,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>9</v>
@@ -3610,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>6</v>
@@ -3635,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -3660,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>38</v>
@@ -4284,96 +4392,138 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
     <col min="6" max="6" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:3" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:3" s="1" customFormat="1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:3" s="1" customFormat="1">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
       <c r="B7" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:3" s="1" customFormat="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>171</v>
       </c>
     </row>

--- a/bumagia_data.xlsx
+++ b/bumagia_data.xlsx
@@ -9,23 +9,24 @@
   <sheets>
     <sheet name="common_data" sheetId="3" r:id="rId1"/>
     <sheet name="index" sheetId="14" r:id="rId2"/>
-    <sheet name="ecofiller" sheetId="13" r:id="rId3"/>
-    <sheet name="papercubes" sheetId="4" r:id="rId4"/>
-    <sheet name="quilmagnet" sheetId="5" r:id="rId5"/>
-    <sheet name="puzzles" sheetId="6" r:id="rId6"/>
-    <sheet name="bookmarks" sheetId="7" r:id="rId7"/>
-    <sheet name="twosidespaper" sheetId="8" r:id="rId8"/>
-    <sheet name="modul_origami" sheetId="9" r:id="rId9"/>
-    <sheet name="quilling3d" sheetId="10" r:id="rId10"/>
-    <sheet name="quilling" sheetId="11" r:id="rId11"/>
-    <sheet name="sketchbooks" sheetId="12" r:id="rId12"/>
+    <sheet name="bigcolorings" sheetId="15" r:id="rId3"/>
+    <sheet name="ecofiller" sheetId="13" r:id="rId4"/>
+    <sheet name="papercubes" sheetId="4" r:id="rId5"/>
+    <sheet name="quilmagnet" sheetId="5" r:id="rId6"/>
+    <sheet name="puzzles" sheetId="6" r:id="rId7"/>
+    <sheet name="bookmarks" sheetId="7" r:id="rId8"/>
+    <sheet name="twosidespaper" sheetId="8" r:id="rId9"/>
+    <sheet name="modul_origami" sheetId="9" r:id="rId10"/>
+    <sheet name="quilling3d" sheetId="10" r:id="rId11"/>
+    <sheet name="quilling" sheetId="11" r:id="rId12"/>
+    <sheet name="sketchbooks" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="333">
   <si>
     <t>Шампань</t>
   </si>
@@ -705,9 +706,6 @@
     <t>catalog_link</t>
   </si>
   <si>
-    <t>https://www.yumpu.com/ru/document/read/65197577/bumagia</t>
-  </si>
-  <si>
     <t>Блоки бумаги</t>
   </si>
   <si>
@@ -763,13 +761,277 @@
   </si>
   <si>
     <t>цветная бумага, цветной картон, двусторонняя цветная бумага, двусторонний цветной картон</t>
+  </si>
+  <si>
+    <t>https://www.yumpu.com/xx/document/view/65771230/bumagia</t>
+  </si>
+  <si>
+    <t>60x84 см</t>
+  </si>
+  <si>
+    <t>Купить большие раскраски</t>
+  </si>
+  <si>
+    <t>Большие раскраски</t>
+  </si>
+  <si>
+    <t>bigcolorings</t>
+  </si>
+  <si>
+    <t>bumagia.com.ua |большие раскраски</t>
+  </si>
+  <si>
+    <t>Познакомьтесь с новинкой от ТМ «Бумагия» - коллекцией подарочных наборов больших раскрасок для малышей.</t>
+  </si>
+  <si>
+    <t>купить раскраску, большая раскраска, набор для творчества раскраска</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Большие</t>
+  </si>
+  <si>
+    <t>раскраски</t>
+  </si>
+  <si>
+    <t>BIGCOLORINGS</t>
+  </si>
+  <si>
+    <t>Большие раскраски - увлекательная забава для детей от 9 до 99 лет</t>
+  </si>
+  <si>
+    <t>Обычными раскрасками сейчас никого не удивишь: эта  забава давно полюбилась малышам. Но что если юный творец получит в свое распоряжение огромный лист с большим контуреным рисунком? Веселье для всей семьи гарантировано! Об этом мы и думали создавая коллекцию наших наборов раскрасок: большой лист с рисунком для рваскрашивания, набор кисточек и красок, и даже стаканчик, липучки и пакетик влажных салфеток, чтобы потом оттереть юного художника. Бери и твори!</t>
+  </si>
+  <si>
+    <t>Собака</t>
+  </si>
+  <si>
+    <t>Кролик-художник</t>
+  </si>
+  <si>
+    <t>Динозавр</t>
+  </si>
+  <si>
+    <t>Півник</t>
+  </si>
+  <si>
+    <t>Слон</t>
+  </si>
+  <si>
+    <t>Жираф на машині</t>
+  </si>
+  <si>
+    <t>Метелик</t>
+  </si>
+  <si>
+    <t>Принцеса</t>
+  </si>
+  <si>
+    <t>Хлопчик</t>
+  </si>
+  <si>
+    <t>Клоун</t>
+  </si>
+  <si>
+    <t>Іграшки</t>
+  </si>
+  <si>
+    <t>Коник-качалка</t>
+  </si>
+  <si>
+    <t>Кубики</t>
+  </si>
+  <si>
+    <t>Равлик</t>
+  </si>
+  <si>
+    <t>Машина</t>
+  </si>
+  <si>
+    <t>Поїзд</t>
+  </si>
+  <si>
+    <t>Літак</t>
+  </si>
+  <si>
+    <t>Дорога</t>
+  </si>
+  <si>
+    <t>Корабель</t>
+  </si>
+  <si>
+    <t>Будиночок</t>
+  </si>
+  <si>
+    <t>Квітка в горщику</t>
+  </si>
+  <si>
+    <t>Ялинка</t>
+  </si>
+  <si>
+    <t>Цифри</t>
+  </si>
+  <si>
+    <t>Абетка</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-sobachka-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-zajka-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-dinozavrik-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-petushok-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-slonik-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-zhiraf-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-babochka-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-printsessa-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-malchik-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-kloun-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-igrushki-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-loshadka-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-kubiki-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-ulitka-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-mashina-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-parovoz-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-samolet-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-transport-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-korablik-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-domik-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-tsvetochek-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-novogodnyaya-elka-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-tsifry-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>http://www.bumagiy.com/products/mega-raskraska-alfavit-60h84-sm-kraski-v-nabore</t>
+  </si>
+  <si>
+    <t>0000000000002</t>
+  </si>
+  <si>
+    <t>0000000000003</t>
+  </si>
+  <si>
+    <t>0000000000005</t>
+  </si>
+  <si>
+    <t>0000000000004</t>
+  </si>
+  <si>
+    <t>0000000000006</t>
+  </si>
+  <si>
+    <t>0000000000007</t>
+  </si>
+  <si>
+    <t>0000000000008</t>
+  </si>
+  <si>
+    <t>0000000000009</t>
+  </si>
+  <si>
+    <t>0000000000011</t>
+  </si>
+  <si>
+    <t>0000000000014</t>
+  </si>
+  <si>
+    <t>0000000000015</t>
+  </si>
+  <si>
+    <t>0000000000016</t>
+  </si>
+  <si>
+    <t>0000000000019</t>
+  </si>
+  <si>
+    <t>0000000000020</t>
+  </si>
+  <si>
+    <t>0000000000021</t>
+  </si>
+  <si>
+    <t>0000000000022</t>
+  </si>
+  <si>
+    <t>0000000000023</t>
+  </si>
+  <si>
+    <t>0000000000024</t>
+  </si>
+  <si>
+    <t>0000000000026</t>
+  </si>
+  <si>
+    <t>0000000000029</t>
+  </si>
+  <si>
+    <t>0000000000030</t>
+  </si>
+  <si>
+    <t>0000000000034</t>
+  </si>
+  <si>
+    <t>0000000000035</t>
+  </si>
+  <si>
+    <t>0000000000010</t>
+  </si>
+  <si>
+    <t>Не секрет, что дети обожают раскрашивать картинки. Но часто так бывает, что их творческому порыву просто не хватает места: маленькие странички обычной раскраски не могут вместить того, что желает выплеснуть на них юный художник.&lt;br&gt;Тогда вам пригодится наша &lt;a href="products/bigcolorings.html"&gt;новинка&lt;/a&gt; — большие раскраски для малышей! В яркой подарочной коробке уже есть все, чтобы тут же начать творить: набор красок, кисточки и удобный стаканчик-непроливайка. Мы даже позаботлилсь о том, чтобы у вас была возможность закрепить лист на столе или полу во время работы, а после нее - оттереть от красок самого юного художника. Выбирайте любую из 24-х картинок (есть посложнее, есть попроще) и начинайте творить!</t>
+  </si>
+  <si>
+    <t>Что нужно для домашнего семейного развлечения? Большое поле для деятельности, и чтобы все сразу было под рукой! Если вы с этим согласны, то вас заинтересуют наши новые наборы для творчества — большие раскраски для малышей.&lt;br&gt;В яркой подарочной коробке вы найдете просто-таки гигантскую раскраску размером 60х84 см, отпечатанную на качественной бумаге, а также все, что необходимо для того, чтобы начать творить: краски, кисточки и стаканчик-непроливайку. Позаботились мы как о том, чтобы можно было повесить на стену готовую работу или зафиксировать ее в процессе на полу или столе (в комплекте 4 многоразовых липучки tack-it), так и о том, чтобы очистить ваше юное дарование от красок после работы (там же вы найдете пакетик с влажной салфеткой). Добавьте творчества к нашему набору, и мы гарантируем вам и вашему малышу много совместных прекрасных минут!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -839,6 +1101,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -860,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -883,15 +1160,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,8 +1260,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1175,31 +1495,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="75" style="10" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="10" customWidth="1"/>
-    <col min="8" max="11" width="15.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="8" customWidth="1"/>
-    <col min="13" max="26" width="8.7109375" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="8"/>
+    <col min="2" max="2" width="67.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="75" style="10" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="10" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="8" customWidth="1"/>
+    <col min="14" max="27" width="8.7109375" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="10">
-        <v>0</v>
+      <c r="B1" s="33">
+        <v>1</v>
       </c>
       <c r="C1" s="10">
         <v>0</v>
@@ -1214,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="10">
         <v>0</v>
@@ -1228,214 +1549,243 @@
       <c r="K1" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="L1" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="51" customHeight="1">
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" s="17" customFormat="1" ht="66" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" ht="114" customHeight="1">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="114" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="14" t="s">
+        <v>244</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="48.75" customHeight="1">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1" ht="48.75" customHeight="1">
       <c r="A8" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="F8" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="47.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:13" s="17" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="174" customHeight="1">
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1" ht="174" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1444,25 +1794,29 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="249.75" customHeight="1">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" s="17" customFormat="1" ht="249.75" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -2486,298 +2840,1000 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="B1" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="19.5" customHeight="1">
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>227</v>
-      </c>
       <c r="D3" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>228</v>
-      </c>
       <c r="D4" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" ht="34.5" customHeight="1">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="154.5" customHeight="1">
+    <row r="8" spans="1:13" s="17" customFormat="1" ht="154.5" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="37" t="str">
+        <f>CONCATENATE("СВ-",TEXT(D2, "00"))</f>
+        <v>СВ-02</v>
+      </c>
+      <c r="F2" s="39" t="str">
+        <f>CONCATENATE("«",C2,"» • ",E2,)</f>
+        <v>«Собака» • СВ-02</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="37" t="str">
+        <f t="shared" ref="E3:E25" si="0">CONCATENATE("СВ-",TEXT(D3, "00"))</f>
+        <v>СВ-03</v>
+      </c>
+      <c r="F3" s="39" t="str">
+        <f t="shared" ref="F3:F25" si="1">CONCATENATE("«",C3,"» • ",E3,)</f>
+        <v>«Кролик-художник» • СВ-03</v>
+      </c>
+      <c r="G3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-04</v>
+      </c>
+      <c r="F4" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Динозавр» • СВ-04</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-05</v>
+      </c>
+      <c r="F5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Півник» • СВ-05</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-06</v>
+      </c>
+      <c r="F6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Слон» • СВ-06</v>
+      </c>
+      <c r="G6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-07</v>
+      </c>
+      <c r="F7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Жираф на машині» • СВ-07</v>
+      </c>
+      <c r="G7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-08</v>
+      </c>
+      <c r="F8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Метелик» • СВ-08</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-09</v>
+      </c>
+      <c r="F9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Принцеса» • СВ-09</v>
+      </c>
+      <c r="G9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-10</v>
+      </c>
+      <c r="F10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Хлопчик» • СВ-10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-11</v>
+      </c>
+      <c r="F11" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Клоун» • СВ-11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-14</v>
+      </c>
+      <c r="F12" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Іграшки» • СВ-14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-15</v>
+      </c>
+      <c r="F13" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Коник-качалка» • СВ-15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-16</v>
+      </c>
+      <c r="F14" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Кубики» • СВ-16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-19</v>
+      </c>
+      <c r="F15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Равлик» • СВ-19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-20</v>
+      </c>
+      <c r="F16" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Машина» • СВ-20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-21</v>
+      </c>
+      <c r="F17" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Поїзд» • СВ-21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-22</v>
+      </c>
+      <c r="F18" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Літак» • СВ-22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-23</v>
+      </c>
+      <c r="F19" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Дорога» • СВ-23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-24</v>
+      </c>
+      <c r="F20" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Корабель» • СВ-24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-26</v>
+      </c>
+      <c r="F21" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Будиночок» • СВ-26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>302</v>
+      </c>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-29</v>
+      </c>
+      <c r="F22" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Квітка в горщику» • СВ-29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-30</v>
+      </c>
+      <c r="F23" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Ялинка» • СВ-30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-34</v>
+      </c>
+      <c r="F24" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Цифри» • СВ-34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>СВ-35</v>
+      </c>
+      <c r="F25" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>«Абетка» • СВ-35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>306</v>
+      </c>
+      <c r="H25" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3854,18 +4910,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="2400" verticalDpi="2400" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3895,6 +4939,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4390,7 +5446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4530,16 +5586,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>